--- a/simulations/raw_inclusion_exclusion/Chou_2003 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Chou_2003 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.06666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E3">
         <v>0.9333333333333333</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.4910901467505241</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="I3">
-        <v>0.3611551329459412</v>
+        <v>0.1214298291952809</v>
       </c>
       <c r="J3">
-        <v>-0.06666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K3">
-        <v>691.6666666666666</v>
+        <v>237.8666666666667</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>13</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="R3">
-        <v>646</v>
+        <v>62</v>
       </c>
       <c r="S3">
-        <v>660</v>
+        <v>87</v>
       </c>
       <c r="T3">
-        <v>670</v>
+        <v>113</v>
       </c>
       <c r="U3">
-        <v>767</v>
+        <v>210</v>
       </c>
       <c r="V3">
-        <v>1693</v>
+        <v>1831</v>
       </c>
       <c r="W3">
-        <v>1247</v>
+        <v>1831</v>
       </c>
       <c r="X3">
-        <v>1233</v>
+        <v>1806</v>
       </c>
       <c r="Y3">
-        <v>1223</v>
+        <v>1780</v>
       </c>
       <c r="Z3">
-        <v>1126</v>
+        <v>1683</v>
       </c>
       <c r="AA3">
         <v>14</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.894348</v>
+        <v>0.967248</v>
       </c>
       <c r="AG3">
-        <v>0.658743</v>
+        <v>0.967248</v>
       </c>
       <c r="AH3">
-        <v>0.651347</v>
+        <v>0.954041</v>
       </c>
       <c r="AI3">
-        <v>0.646064</v>
+        <v>0.940306</v>
       </c>
       <c r="AJ3">
-        <v>0.594823</v>
+        <v>0.889065</v>
       </c>
     </row>
   </sheetData>
